--- a/_data/XRPUSDT_2h.xlsx
+++ b/_data/XRPUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1169"/>
+  <dimension ref="A1:F1239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23781,6 +23781,1406 @@
         <v>297994</v>
       </c>
     </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>0.5619</v>
+      </c>
+      <c r="C1170">
+        <v>0.5631</v>
+      </c>
+      <c r="D1170">
+        <v>0.5462</v>
+      </c>
+      <c r="E1170">
+        <v>0.5485</v>
+      </c>
+      <c r="F1170">
+        <v>55901766</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>0.5485</v>
+      </c>
+      <c r="C1171">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="D1171">
+        <v>0.5463</v>
+      </c>
+      <c r="E1171">
+        <v>0.5558999999999999</v>
+      </c>
+      <c r="F1171">
+        <v>33972804</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>0.5558999999999999</v>
+      </c>
+      <c r="C1172">
+        <v>0.5629</v>
+      </c>
+      <c r="D1172">
+        <v>0.5558999999999999</v>
+      </c>
+      <c r="E1172">
+        <v>0.5618</v>
+      </c>
+      <c r="F1172">
+        <v>13458940</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>0.5617</v>
+      </c>
+      <c r="C1173">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D1173">
+        <v>0.5603</v>
+      </c>
+      <c r="E1173">
+        <v>0.5615</v>
+      </c>
+      <c r="F1173">
+        <v>2597992</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>0.5658</v>
+      </c>
+      <c r="C1174">
+        <v>0.5677</v>
+      </c>
+      <c r="D1174">
+        <v>0.5657</v>
+      </c>
+      <c r="E1174">
+        <v>0.5667</v>
+      </c>
+      <c r="F1174">
+        <v>6102747</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>0.5667</v>
+      </c>
+      <c r="C1175">
+        <v>0.5682</v>
+      </c>
+      <c r="D1175">
+        <v>0.5653</v>
+      </c>
+      <c r="E1175">
+        <v>0.5664</v>
+      </c>
+      <c r="F1175">
+        <v>4516561</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>0.5665</v>
+      </c>
+      <c r="C1176">
+        <v>0.5668</v>
+      </c>
+      <c r="D1176">
+        <v>0.5647</v>
+      </c>
+      <c r="E1176">
+        <v>0.5648</v>
+      </c>
+      <c r="F1176">
+        <v>4918291</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>0.5648</v>
+      </c>
+      <c r="C1177">
+        <v>0.5687</v>
+      </c>
+      <c r="D1177">
+        <v>0.5645</v>
+      </c>
+      <c r="E1177">
+        <v>0.5671</v>
+      </c>
+      <c r="F1177">
+        <v>4486197</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C1178">
+        <v>0.5682</v>
+      </c>
+      <c r="D1178">
+        <v>0.5664</v>
+      </c>
+      <c r="E1178">
+        <v>0.5665</v>
+      </c>
+      <c r="F1178">
+        <v>3712342</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>0.5665</v>
+      </c>
+      <c r="C1179">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="D1179">
+        <v>0.5625</v>
+      </c>
+      <c r="E1179">
+        <v>0.5678</v>
+      </c>
+      <c r="F1179">
+        <v>9246523</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>0.5678</v>
+      </c>
+      <c r="C1180">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="D1180">
+        <v>0.5677</v>
+      </c>
+      <c r="E1180">
+        <v>0.5692</v>
+      </c>
+      <c r="F1180">
+        <v>8427858</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>0.5693</v>
+      </c>
+      <c r="C1181">
+        <v>0.57</v>
+      </c>
+      <c r="D1181">
+        <v>0.5658</v>
+      </c>
+      <c r="E1181">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="F1181">
+        <v>6520571</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="C1182">
+        <v>0.5673</v>
+      </c>
+      <c r="D1182">
+        <v>0.5644</v>
+      </c>
+      <c r="E1182">
+        <v>0.5664</v>
+      </c>
+      <c r="F1182">
+        <v>6376268</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>0.5664</v>
+      </c>
+      <c r="C1183">
+        <v>0.5664</v>
+      </c>
+      <c r="D1183">
+        <v>0.5624</v>
+      </c>
+      <c r="E1183">
+        <v>0.5649</v>
+      </c>
+      <c r="F1183">
+        <v>6268903</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>0.5649</v>
+      </c>
+      <c r="C1184">
+        <v>0.5681</v>
+      </c>
+      <c r="D1184">
+        <v>0.5644</v>
+      </c>
+      <c r="E1184">
+        <v>0.5678</v>
+      </c>
+      <c r="F1184">
+        <v>4849669</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>0.5678</v>
+      </c>
+      <c r="C1185">
+        <v>0.5681</v>
+      </c>
+      <c r="D1185">
+        <v>0.5661</v>
+      </c>
+      <c r="E1185">
+        <v>0.5671</v>
+      </c>
+      <c r="F1185">
+        <v>2299466</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>0.5662</v>
+      </c>
+      <c r="C1186">
+        <v>0.5686</v>
+      </c>
+      <c r="D1186">
+        <v>0.5655</v>
+      </c>
+      <c r="E1186">
+        <v>0.5662</v>
+      </c>
+      <c r="F1186">
+        <v>2819279</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>0.5662</v>
+      </c>
+      <c r="C1187">
+        <v>0.5667</v>
+      </c>
+      <c r="D1187">
+        <v>0.5613</v>
+      </c>
+      <c r="E1187">
+        <v>0.5615</v>
+      </c>
+      <c r="F1187">
+        <v>4381696</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>0.5616</v>
+      </c>
+      <c r="C1188">
+        <v>0.5618</v>
+      </c>
+      <c r="D1188">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="E1188">
+        <v>0.5608</v>
+      </c>
+      <c r="F1188">
+        <v>7543338</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>0.5607</v>
+      </c>
+      <c r="C1189">
+        <v>0.5607</v>
+      </c>
+      <c r="D1189">
+        <v>0.553</v>
+      </c>
+      <c r="E1189">
+        <v>0.5545</v>
+      </c>
+      <c r="F1189">
+        <v>9564275</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>0.5545</v>
+      </c>
+      <c r="C1190">
+        <v>0.5596</v>
+      </c>
+      <c r="D1190">
+        <v>0.5541</v>
+      </c>
+      <c r="E1190">
+        <v>0.5591</v>
+      </c>
+      <c r="F1190">
+        <v>6642145</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="C1191">
+        <v>0.5603</v>
+      </c>
+      <c r="D1191">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="E1191">
+        <v>0.5591</v>
+      </c>
+      <c r="F1191">
+        <v>4661558</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>0.5593</v>
+      </c>
+      <c r="C1192">
+        <v>0.5593</v>
+      </c>
+      <c r="D1192">
+        <v>0.5555</v>
+      </c>
+      <c r="E1192">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="F1192">
+        <v>6459433</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>0.5581</v>
+      </c>
+      <c r="C1193">
+        <v>0.5589</v>
+      </c>
+      <c r="D1193">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="E1193">
+        <v>0.5566</v>
+      </c>
+      <c r="F1193">
+        <v>8622611</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>0.5566</v>
+      </c>
+      <c r="C1194">
+        <v>0.5575</v>
+      </c>
+      <c r="D1194">
+        <v>0.5515</v>
+      </c>
+      <c r="E1194">
+        <v>0.5565</v>
+      </c>
+      <c r="F1194">
+        <v>13472172</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>0.5566</v>
+      </c>
+      <c r="C1195">
+        <v>0.5583</v>
+      </c>
+      <c r="D1195">
+        <v>0.5558</v>
+      </c>
+      <c r="E1195">
+        <v>0.5558</v>
+      </c>
+      <c r="F1195">
+        <v>2045733</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>0.5551</v>
+      </c>
+      <c r="C1196">
+        <v>0.5608</v>
+      </c>
+      <c r="D1196">
+        <v>0.555</v>
+      </c>
+      <c r="E1196">
+        <v>0.5595</v>
+      </c>
+      <c r="F1196">
+        <v>9257032</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>0.5595</v>
+      </c>
+      <c r="C1197">
+        <v>0.5619</v>
+      </c>
+      <c r="D1197">
+        <v>0.5553</v>
+      </c>
+      <c r="E1197">
+        <v>0.5581</v>
+      </c>
+      <c r="F1197">
+        <v>5965927</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>0.5581</v>
+      </c>
+      <c r="C1198">
+        <v>0.5581</v>
+      </c>
+      <c r="D1198">
+        <v>0.5434</v>
+      </c>
+      <c r="E1198">
+        <v>0.5472</v>
+      </c>
+      <c r="F1198">
+        <v>36213741</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>0.5471</v>
+      </c>
+      <c r="C1199">
+        <v>0.5508</v>
+      </c>
+      <c r="D1199">
+        <v>0.5463</v>
+      </c>
+      <c r="E1199">
+        <v>0.5488</v>
+      </c>
+      <c r="F1199">
+        <v>21050608</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>0.5488</v>
+      </c>
+      <c r="C1200">
+        <v>0.5503</v>
+      </c>
+      <c r="D1200">
+        <v>0.5466</v>
+      </c>
+      <c r="E1200">
+        <v>0.5501</v>
+      </c>
+      <c r="F1200">
+        <v>9542693</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>0.5501</v>
+      </c>
+      <c r="C1201">
+        <v>0.5511</v>
+      </c>
+      <c r="D1201">
+        <v>0.5447</v>
+      </c>
+      <c r="E1201">
+        <v>0.5498</v>
+      </c>
+      <c r="F1201">
+        <v>10994298</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>0.5498</v>
+      </c>
+      <c r="C1202">
+        <v>0.5508999999999999</v>
+      </c>
+      <c r="D1202">
+        <v>0.5443</v>
+      </c>
+      <c r="E1202">
+        <v>0.5463</v>
+      </c>
+      <c r="F1202">
+        <v>23738519</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>0.5463</v>
+      </c>
+      <c r="C1203">
+        <v>0.5543</v>
+      </c>
+      <c r="D1203">
+        <v>0.5455</v>
+      </c>
+      <c r="E1203">
+        <v>0.5535</v>
+      </c>
+      <c r="F1203">
+        <v>16183905</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>0.5534</v>
+      </c>
+      <c r="C1204">
+        <v>0.5576</v>
+      </c>
+      <c r="D1204">
+        <v>0.5521</v>
+      </c>
+      <c r="E1204">
+        <v>0.5553</v>
+      </c>
+      <c r="F1204">
+        <v>21525558</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="C1205">
+        <v>0.5561</v>
+      </c>
+      <c r="D1205">
+        <v>0.5526</v>
+      </c>
+      <c r="E1205">
+        <v>0.5528</v>
+      </c>
+      <c r="F1205">
+        <v>12566402</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>0.5528</v>
+      </c>
+      <c r="C1206">
+        <v>0.5531</v>
+      </c>
+      <c r="D1206">
+        <v>0.5528</v>
+      </c>
+      <c r="E1206">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="F1206">
+        <v>123223</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>0.5582</v>
+      </c>
+      <c r="C1207">
+        <v>0.5609</v>
+      </c>
+      <c r="D1207">
+        <v>0.5555</v>
+      </c>
+      <c r="E1207">
+        <v>0.5608</v>
+      </c>
+      <c r="F1207">
+        <v>8942406</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>0.5608</v>
+      </c>
+      <c r="C1208">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="D1208">
+        <v>0.5596</v>
+      </c>
+      <c r="E1208">
+        <v>0.5679</v>
+      </c>
+      <c r="F1208">
+        <v>13478318</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>0.5678</v>
+      </c>
+      <c r="C1209">
+        <v>0.5688</v>
+      </c>
+      <c r="D1209">
+        <v>0.5644</v>
+      </c>
+      <c r="E1209">
+        <v>0.5665</v>
+      </c>
+      <c r="F1209">
+        <v>12759624</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>0.5664</v>
+      </c>
+      <c r="C1210">
+        <v>0.5685</v>
+      </c>
+      <c r="D1210">
+        <v>0.5658</v>
+      </c>
+      <c r="E1210">
+        <v>0.5677</v>
+      </c>
+      <c r="F1210">
+        <v>7264965</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>0.5677</v>
+      </c>
+      <c r="C1211">
+        <v>0.569</v>
+      </c>
+      <c r="D1211">
+        <v>0.5656</v>
+      </c>
+      <c r="E1211">
+        <v>0.569</v>
+      </c>
+      <c r="F1211">
+        <v>10663816</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>0.5689</v>
+      </c>
+      <c r="C1212">
+        <v>0.5724</v>
+      </c>
+      <c r="D1212">
+        <v>0.5666</v>
+      </c>
+      <c r="E1212">
+        <v>0.5667</v>
+      </c>
+      <c r="F1212">
+        <v>13470119</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>0.5666</v>
+      </c>
+      <c r="C1213">
+        <v>0.5676</v>
+      </c>
+      <c r="D1213">
+        <v>0.5649</v>
+      </c>
+      <c r="E1213">
+        <v>0.5675</v>
+      </c>
+      <c r="F1213">
+        <v>9504724</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>0.5674</v>
+      </c>
+      <c r="C1214">
+        <v>0.5695</v>
+      </c>
+      <c r="D1214">
+        <v>0.5656</v>
+      </c>
+      <c r="E1214">
+        <v>0.5692</v>
+      </c>
+      <c r="F1214">
+        <v>21607393</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="C1215">
+        <v>0.572</v>
+      </c>
+      <c r="D1215">
+        <v>0.5658</v>
+      </c>
+      <c r="E1215">
+        <v>0.57</v>
+      </c>
+      <c r="F1215">
+        <v>12696430</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>0.57</v>
+      </c>
+      <c r="C1216">
+        <v>0.5724</v>
+      </c>
+      <c r="D1216">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="E1216">
+        <v>0.5701000000000001</v>
+      </c>
+      <c r="F1216">
+        <v>18111837</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>0.57</v>
+      </c>
+      <c r="C1217">
+        <v>0.5723</v>
+      </c>
+      <c r="D1217">
+        <v>0.5605</v>
+      </c>
+      <c r="E1217">
+        <v>0.5625</v>
+      </c>
+      <c r="F1217">
+        <v>22835905</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>0.5624</v>
+      </c>
+      <c r="C1218">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="D1218">
+        <v>0.5571</v>
+      </c>
+      <c r="E1218">
+        <v>0.5593</v>
+      </c>
+      <c r="F1218">
+        <v>27717123</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>0.5592</v>
+      </c>
+      <c r="C1219">
+        <v>0.5648</v>
+      </c>
+      <c r="D1219">
+        <v>0.5586</v>
+      </c>
+      <c r="E1219">
+        <v>0.5617</v>
+      </c>
+      <c r="F1219">
+        <v>15211846</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>0.5617</v>
+      </c>
+      <c r="C1220">
+        <v>0.5659</v>
+      </c>
+      <c r="D1220">
+        <v>0.5607</v>
+      </c>
+      <c r="E1220">
+        <v>0.5659</v>
+      </c>
+      <c r="F1220">
+        <v>10119440</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>0.5659</v>
+      </c>
+      <c r="C1221">
+        <v>0.5677</v>
+      </c>
+      <c r="D1221">
+        <v>0.5648</v>
+      </c>
+      <c r="E1221">
+        <v>0.5661</v>
+      </c>
+      <c r="F1221">
+        <v>7987449</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="C1222">
+        <v>0.5662</v>
+      </c>
+      <c r="D1222">
+        <v>0.5565</v>
+      </c>
+      <c r="E1222">
+        <v>0.5572</v>
+      </c>
+      <c r="F1222">
+        <v>9855401</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>0.5572</v>
+      </c>
+      <c r="C1223">
+        <v>0.5604</v>
+      </c>
+      <c r="D1223">
+        <v>0.5326</v>
+      </c>
+      <c r="E1223">
+        <v>0.5501</v>
+      </c>
+      <c r="F1223">
+        <v>82012366</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>0.5502</v>
+      </c>
+      <c r="C1224">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="D1224">
+        <v>0.5489000000000001</v>
+      </c>
+      <c r="E1224">
+        <v>0.553</v>
+      </c>
+      <c r="F1224">
+        <v>13780595</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>0.553</v>
+      </c>
+      <c r="C1225">
+        <v>0.5538</v>
+      </c>
+      <c r="D1225">
+        <v>0.5497</v>
+      </c>
+      <c r="E1225">
+        <v>0.55</v>
+      </c>
+      <c r="F1225">
+        <v>9914187</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>0.55</v>
+      </c>
+      <c r="C1226">
+        <v>0.5556</v>
+      </c>
+      <c r="D1226">
+        <v>0.5499000000000001</v>
+      </c>
+      <c r="E1226">
+        <v>0.5545</v>
+      </c>
+      <c r="F1226">
+        <v>23636353</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>0.5546</v>
+      </c>
+      <c r="C1227">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="D1227">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="E1227">
+        <v>0.553</v>
+      </c>
+      <c r="F1227">
+        <v>17096355</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>0.5531</v>
+      </c>
+      <c r="C1228">
+        <v>0.5533</v>
+      </c>
+      <c r="D1228">
+        <v>0.549</v>
+      </c>
+      <c r="E1228">
+        <v>0.5505</v>
+      </c>
+      <c r="F1228">
+        <v>26169811</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>0.5505</v>
+      </c>
+      <c r="C1229">
+        <v>0.5543</v>
+      </c>
+      <c r="D1229">
+        <v>0.5472</v>
+      </c>
+      <c r="E1229">
+        <v>0.5537</v>
+      </c>
+      <c r="F1229">
+        <v>24596822</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>0.5536</v>
+      </c>
+      <c r="C1230">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D1230">
+        <v>0.5516</v>
+      </c>
+      <c r="E1230">
+        <v>0.5621</v>
+      </c>
+      <c r="F1230">
+        <v>33485074</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>0.5621</v>
+      </c>
+      <c r="C1231">
+        <v>0.5648</v>
+      </c>
+      <c r="D1231">
+        <v>0.5585</v>
+      </c>
+      <c r="E1231">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F1231">
+        <v>16210340</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="C1232">
+        <v>0.5605</v>
+      </c>
+      <c r="D1232">
+        <v>0.5564</v>
+      </c>
+      <c r="E1232">
+        <v>0.5567</v>
+      </c>
+      <c r="F1232">
+        <v>6370880</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6">
+      <c r="A1233" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1233">
+        <v>0.5578</v>
+      </c>
+      <c r="C1233">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="D1233">
+        <v>0.5574</v>
+      </c>
+      <c r="E1233">
+        <v>0.5577</v>
+      </c>
+      <c r="F1233">
+        <v>118399</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6">
+      <c r="A1234" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1234">
+        <v>0.5586</v>
+      </c>
+      <c r="C1234">
+        <v>0.5612</v>
+      </c>
+      <c r="D1234">
+        <v>0.5572</v>
+      </c>
+      <c r="E1234">
+        <v>0.5579</v>
+      </c>
+      <c r="F1234">
+        <v>10296007</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6">
+      <c r="A1235" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1235">
+        <v>0.5579</v>
+      </c>
+      <c r="C1235">
+        <v>0.5598</v>
+      </c>
+      <c r="D1235">
+        <v>0.5572</v>
+      </c>
+      <c r="E1235">
+        <v>0.5585</v>
+      </c>
+      <c r="F1235">
+        <v>14721682</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6">
+      <c r="A1236" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1236">
+        <v>0.5585</v>
+      </c>
+      <c r="C1236">
+        <v>0.5589</v>
+      </c>
+      <c r="D1236">
+        <v>0.5517</v>
+      </c>
+      <c r="E1236">
+        <v>0.5528</v>
+      </c>
+      <c r="F1236">
+        <v>14556876</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6">
+      <c r="A1237" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1237">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="C1237">
+        <v>0.5542</v>
+      </c>
+      <c r="D1237">
+        <v>0.5523</v>
+      </c>
+      <c r="E1237">
+        <v>0.553</v>
+      </c>
+      <c r="F1237">
+        <v>6786478</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6">
+      <c r="A1238" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1238">
+        <v>0.553</v>
+      </c>
+      <c r="C1238">
+        <v>0.5547</v>
+      </c>
+      <c r="D1238">
+        <v>0.5499000000000001</v>
+      </c>
+      <c r="E1238">
+        <v>0.5535</v>
+      </c>
+      <c r="F1238">
+        <v>29195527</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6">
+      <c r="A1239" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1239">
+        <v>0.5535</v>
+      </c>
+      <c r="C1239">
+        <v>0.5547</v>
+      </c>
+      <c r="D1239">
+        <v>0.5498</v>
+      </c>
+      <c r="E1239">
+        <v>0.5499000000000001</v>
+      </c>
+      <c r="F1239">
+        <v>6963768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
